--- a/Documentation/JDB.xlsx
+++ b/Documentation/JDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -42,10 +42,58 @@
     <t>Mise à jour de la fiche signalétique selon les spécifications de M. Carrel</t>
   </si>
   <si>
-    <t>Création du Journal de bord</t>
-  </si>
-  <si>
     <t>Recherches sur les réseaux neuronaux</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>NB Périodes</t>
+  </si>
+  <si>
+    <t>Mise en place de l'arborescence de travail</t>
+  </si>
+  <si>
+    <t>Recherche d'IDE</t>
+  </si>
+  <si>
+    <t>Création &amp; remplissage du Journal de bord</t>
+  </si>
+  <si>
+    <t>J'ai fait quelques recherches, pour me faire une idée de la dose de travail qui m'attend, et à moins qu'un gros imprévu ne se présente, le tout devrait être faisable</t>
+  </si>
+  <si>
+    <t>Début de la rédaction du dossier de projet</t>
+  </si>
+  <si>
+    <t>Suite de la rédaction du dossier de projet</t>
+  </si>
+  <si>
+    <t>Durée (Périodes)</t>
+  </si>
+  <si>
+    <t>Absence (Bus raté)</t>
+  </si>
+  <si>
+    <t>Installation d'intelliJ, recherche de librairies</t>
+  </si>
+  <si>
+    <t>Mise à jour de la liste des tâches</t>
+  </si>
+  <si>
+    <t>Vidéos explicatives sur les réseaux neuronaux</t>
+  </si>
+  <si>
+    <t>Absence</t>
+  </si>
+  <si>
+    <t>Modification du journal de bord</t>
+  </si>
+  <si>
+    <t>Modification du Trello</t>
+  </si>
+  <si>
+    <t>écriture de la suite du dossier de projet</t>
   </si>
 </sst>
 </file>
@@ -61,15 +109,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -77,13 +131,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,77 +613,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
         <v>43132</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B2" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="14">
+        <v>43132</v>
+      </c>
+      <c r="G2" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="14">
+        <v>43133</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="14">
+        <v>43137</v>
+      </c>
+      <c r="G4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>43133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="14">
+        <v>43138</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="D6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="14">
+        <v>43139</v>
+      </c>
+      <c r="G6" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="14">
+        <v>43140</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="14">
+        <v>43144</v>
+      </c>
+      <c r="G8" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>43137</v>
+      </c>
+      <c r="B9" s="35">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="14">
+        <v>43145</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43146</v>
+      </c>
+      <c r="G11">
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1">
+        <v>43147</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>43138</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="1">
+        <v>43158</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>43139</v>
+      </c>
+      <c r="B14" s="32">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1">
+        <v>43159</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1">
+        <v>43160</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1">
+        <v>43161</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1">
+        <v>43165</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1">
+        <v>43166</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>43140</v>
+      </c>
+      <c r="B19" s="28">
+        <v>2</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="22">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="1">
+        <v>43167</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>43144</v>
+      </c>
+      <c r="B20" s="35">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1">
+        <v>43168</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1">
+        <v>43172</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1">
+        <v>43173</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1">
+        <v>43174</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>43145</v>
+      </c>
+      <c r="B24" s="28">
+        <v>1</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="1">
+        <v>43175</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43179</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>43180</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>43181</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>43182</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>43186</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>43187</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>43188</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>43189</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>43207</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>43208</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>43209</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>43210</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>43214</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>43215</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>43216</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>43217</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/JDB.xlsx
+++ b/Documentation/JDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>écriture de la suite du dossier de projet</t>
+  </si>
+  <si>
+    <t>Suite du dossier de projet</t>
+  </si>
+  <si>
+    <t>Mise à jour des Uses cases</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,6 +1074,12 @@
       <c r="B25">
         <v>8</v>
       </c>
+      <c r="C25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
       <c r="F25" s="1">
         <v>43179</v>
       </c>
@@ -1076,6 +1088,12 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
       <c r="F26" s="1">
         <v>43180</v>
       </c>
@@ -1084,6 +1102,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
       <c r="F27" s="1">
         <v>43181</v>
       </c>

--- a/Documentation/JDB.xlsx
+++ b/Documentation/JDB.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/JDB.xlsx
+++ b/Documentation/JDB.xlsx
@@ -311,7 +311,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,6 +337,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,10 +655,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>43132</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -674,8 +676,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -691,8 +693,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
@@ -708,17 +710,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>43133</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="14">
@@ -729,8 +731,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -746,8 +748,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -763,8 +765,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -780,10 +782,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>43137</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -795,8 +797,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -812,8 +814,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
@@ -823,16 +825,16 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="14">
         <v>43146</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
@@ -840,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="1">
+      <c r="F12" s="14">
         <v>43147</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="15">
         <v>2</v>
       </c>
     </row>
@@ -869,10 +871,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>43139</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -890,8 +892,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
@@ -907,8 +909,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
@@ -924,8 +926,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
@@ -941,8 +943,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
@@ -961,7 +963,7 @@
       <c r="A19" s="27">
         <v>43140</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="37">
         <v>2</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -979,10 +981,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>43144</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1000,8 +1002,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1017,8 +1019,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +1036,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="7"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4"/>
@@ -1050,7 +1052,7 @@
       <c r="A24" s="27">
         <v>43145</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="37">
         <v>1</v>
       </c>
       <c r="C24" s="23" t="s">

--- a/Documentation/JDB.xlsx
+++ b/Documentation/JDB.xlsx
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -311,36 +317,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +632,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G12"/>
+      <selection activeCell="G15" sqref="F15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,10 +663,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="29">
         <v>43132</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -676,8 +684,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -693,8 +701,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
@@ -710,10 +718,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="29">
         <v>43133</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -731,8 +739,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -748,8 +756,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -765,8 +773,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -782,10 +790,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="29">
         <v>43137</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -797,8 +805,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -814,8 +822,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
@@ -833,8 +841,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
@@ -863,18 +871,18 @@
         <v>1</v>
       </c>
       <c r="E13" s="25"/>
-      <c r="F13" s="1">
+      <c r="F13" s="14">
         <v>43158</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="29">
         <v>43139</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -884,16 +892,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="1">
+      <c r="F14" s="14">
         <v>43159</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
@@ -901,16 +909,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="1">
+      <c r="F15" s="14">
         <v>43160</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
@@ -918,16 +926,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="1">
+      <c r="F16" s="14">
         <v>43161</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
@@ -935,16 +943,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="1">
+      <c r="F17" s="14">
         <v>43165</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
@@ -963,7 +971,7 @@
       <c r="A19" s="27">
         <v>43140</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="28">
         <v>2</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -981,10 +989,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="29">
         <v>43144</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="35">
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -994,16 +1002,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="1">
+      <c r="F20" s="38">
         <v>43168</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1019,8 +1027,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1036,8 +1044,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="7"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4"/>
@@ -1052,7 +1060,7 @@
       <c r="A24" s="27">
         <v>43145</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="28">
         <v>1</v>
       </c>
       <c r="C24" s="23" t="s">

--- a/Documentation/JDB.xlsx
+++ b/Documentation/JDB.xlsx
@@ -320,35 +320,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="F15:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
     <col min="2" max="2" width="17.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="82.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="100.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -663,10 +663,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="31">
         <v>43132</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="34">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -684,8 +684,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -701,8 +701,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
@@ -718,10 +718,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="31">
         <v>43133</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="34">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -739,8 +739,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -756,8 +756,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -773,8 +773,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -790,10 +790,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="31">
         <v>43137</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="37">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -805,8 +805,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -822,8 +822,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
@@ -841,8 +841,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
@@ -879,10 +879,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="31">
         <v>43139</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="34">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -900,8 +900,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
@@ -917,8 +917,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
@@ -934,8 +934,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
@@ -951,8 +951,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
@@ -989,10 +989,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="31">
         <v>43144</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="37">
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1002,16 +1002,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="38">
+      <c r="F20" s="29">
         <v>43168</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1027,8 +1027,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1044,8 +1044,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="7"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4"/>
